--- a/hardware/ESP-Grow_Main_Rev_A/Project Outputs for ESP_Grow_Main_Rev_A/BOM/ESP_Grow_Main_Rev_A-5252019.xlsx
+++ b/hardware/ESP-Grow_Main_Rev_A/Project Outputs for ESP_Grow_Main_Rev_A/BOM/ESP_Grow_Main_Rev_A-5252019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\esp-grow\hardware\ESP-Grow_Main_Rev_A\Project Outputs for ESP_Grow_Main_Rev_A\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0987F5-0014-4261-98D3-4132D435364A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18994F4F-433B-48CD-95CE-D397E3DBA81C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9144" yWindow="2616" windowWidth="18432" windowHeight="9612" xr2:uid="{8D7F0BD3-47B4-4C74-A32F-AB9095AB3BBF}"/>
+    <workbookView xWindow="-8520" yWindow="3432" windowWidth="18432" windowHeight="9612" xr2:uid="{8D7F0BD3-47B4-4C74-A32F-AB9095AB3BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP_Grow_Main_Rev_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>1uF 0603 25V</t>
-  </si>
-  <si>
     <t>C1, C2, C11, C13, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26</t>
   </si>
   <si>
@@ -84,18 +81,12 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>0.1uF 0603 16V</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>399-1096-2-ND</t>
-  </si>
-  <si>
     <t>0.1uF 0402 25V</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>490-10503-1-ND</t>
-  </si>
-  <si>
     <t>J/Wemo_ESP_Shield</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t>Wurth Electronics</t>
   </si>
   <si>
-    <t>732-4984-6-ND</t>
-  </si>
-  <si>
     <t>D/LEDB/0603</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>311-1.00KLRCT-ND</t>
-  </si>
-  <si>
     <t>56.2K 1%</t>
   </si>
   <si>
@@ -460,6 +442,27 @@
   </si>
   <si>
     <t>1276-1102-1-ND‎</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 16V X7R 0603</t>
+  </si>
+  <si>
+    <t>‎1276-1005-1-ND‎</t>
+  </si>
+  <si>
+    <t>1276-6455-1-ND</t>
+  </si>
+  <si>
+    <t>‎732-4984-1-ND‎</t>
+  </si>
+  <si>
+    <t>LED BLUE CLEAR 2SMD</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1K00CT-ND</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +649,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -965,15 +971,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3376EB41-066D-4A9C-A23C-1FE9B510B88C}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="7.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -984,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1009,42 +1015,42 @@
         <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H3" s="9">
         <v>4.1000000000000002E-2</v>
@@ -1056,25 +1062,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H4" s="9">
         <v>0.22</v>
@@ -1086,55 +1092,55 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="H5" s="9">
-        <v>2.1669999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2.1669999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9">
         <v>0.1</v>
@@ -1146,55 +1152,55 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="H7" s="9">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -1206,25 +1212,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H9" s="9">
         <v>1.36</v>
@@ -1236,25 +1242,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="9">
         <v>1.36</v>
@@ -1266,25 +1272,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" s="9">
         <v>0.84</v>
@@ -1296,25 +1302,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" s="9">
         <v>1.42</v>
@@ -1326,25 +1332,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" s="9">
         <v>0.84</v>
@@ -1356,25 +1362,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="H14" s="9">
         <v>0.17</v>
@@ -1386,25 +1392,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H15" s="9">
         <v>0.45</v>
@@ -1416,25 +1422,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H16" s="9">
         <v>0.22</v>
@@ -1446,25 +1452,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H17" s="9">
         <v>0.74</v>
@@ -1476,55 +1482,55 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H18" s="9">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H19" s="9">
         <v>1.55</v>
@@ -1536,25 +1542,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H20" s="9">
         <v>0.02</v>
@@ -1566,25 +1572,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="H21" s="9">
         <v>0.1</v>
@@ -1596,25 +1602,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H22" s="9">
         <v>0.1</v>
@@ -1626,25 +1632,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H23" s="9">
         <v>0.1</v>
@@ -1656,25 +1662,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H24" s="9">
         <v>0.1</v>
@@ -1686,25 +1692,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H25" s="9">
         <v>0.1</v>
@@ -1716,25 +1722,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H26" s="9">
         <v>0.16</v>
@@ -1746,55 +1752,55 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H27" s="9">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="0"/>
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H28" s="9">
         <v>0.42</v>
@@ -1806,25 +1812,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6">
         <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H29" s="9">
         <v>0.1</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1847,12 +1853,12 @@
       <c r="H31" s="16"/>
       <c r="I31" s="11">
         <f>SUM(I3:I29)</f>
-        <v>16.777670000000001</v>
+        <v>15.736000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -1894,25 +1900,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H35" s="9">
         <v>5</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1984,7 +1990,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2040,7 +2046,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2080,7 +2086,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -2107,7 +2113,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="11">
         <f>I31+I45</f>
-        <v>54.777670000000001</v>
+        <v>53.736000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2152,29 +2158,28 @@
     <hyperlink ref="E20" r:id="rId28" tooltip="Component" display="'Samsung" xr:uid="{0CBFEBC3-D969-454F-A238-ECAD1EA035E1}"/>
     <hyperlink ref="G20" r:id="rId29" tooltip="Supplier" display="'1276-3431-1-ND" xr:uid="{3579B822-B42D-48C9-AD8B-D3AE1DD6C2EC}"/>
     <hyperlink ref="E21" r:id="rId30" tooltip="Component" display="'Yageo" xr:uid="{E35174F3-C52B-4153-8A8E-2516AAA6DF69}"/>
-    <hyperlink ref="G21" r:id="rId31" tooltip="Supplier" display="'311-1.00KLRCT-ND" xr:uid="{B8D723C1-25D7-4415-A564-76DC750DF768}"/>
-    <hyperlink ref="E22" r:id="rId32" tooltip="Component" display="'Panasonic" xr:uid="{CD39F8A7-D759-4D88-902E-07F30A27CEC7}"/>
-    <hyperlink ref="G22" r:id="rId33" tooltip="Supplier" display="'P56.2KLCT-ND" xr:uid="{AC19B199-05FA-43AA-A606-CAE49839F630}"/>
-    <hyperlink ref="E23" r:id="rId34" tooltip="Component" display="'Panasonic" xr:uid="{CDAD0113-799E-436C-8BFD-B59131D0B2B1}"/>
-    <hyperlink ref="G23" r:id="rId35" tooltip="Supplier" display="'P470LCT-ND" xr:uid="{D559DA0E-CD8F-41DB-B215-71103F8862DB}"/>
-    <hyperlink ref="E24" r:id="rId36" tooltip="Component" display="'Yageo" xr:uid="{DE28F2A0-1BFE-44D4-9A97-C13614CDB9FF}"/>
-    <hyperlink ref="G24" r:id="rId37" tooltip="Supplier" display="'311-100LRCT-ND" xr:uid="{B09154E7-ED2D-41A6-9F3D-9590D06DB047}"/>
-    <hyperlink ref="E25" r:id="rId38" tooltip="Component" display="'Panasonic" xr:uid="{0980A74B-3382-4C77-9449-F3A26EB984D0}"/>
-    <hyperlink ref="G25" r:id="rId39" tooltip="Supplier" display="'P4.7KGCT-ND" xr:uid="{C45E63AE-BC7C-43F1-9210-1A4B915A5E96}"/>
-    <hyperlink ref="E26" r:id="rId40" tooltip="Component" display="'ITT C&amp;K" xr:uid="{202A5DE0-912C-433E-BDC7-AED14D015C59}"/>
-    <hyperlink ref="G26" r:id="rId41" tooltip="Supplier" display="'CKN9112CT-ND" xr:uid="{FC1F4C61-EC0E-4B76-9011-964F8AFC1E96}"/>
+    <hyperlink ref="E22" r:id="rId31" tooltip="Component" display="'Panasonic" xr:uid="{CD39F8A7-D759-4D88-902E-07F30A27CEC7}"/>
+    <hyperlink ref="E23" r:id="rId32" tooltip="Component" display="'Panasonic" xr:uid="{CDAD0113-799E-436C-8BFD-B59131D0B2B1}"/>
+    <hyperlink ref="E24" r:id="rId33" tooltip="Component" display="'Yageo" xr:uid="{DE28F2A0-1BFE-44D4-9A97-C13614CDB9FF}"/>
+    <hyperlink ref="G24" r:id="rId34" tooltip="Supplier" display="'311-100LRCT-ND" xr:uid="{B09154E7-ED2D-41A6-9F3D-9590D06DB047}"/>
+    <hyperlink ref="E25" r:id="rId35" tooltip="Component" display="'Panasonic" xr:uid="{0980A74B-3382-4C77-9449-F3A26EB984D0}"/>
+    <hyperlink ref="G25" r:id="rId36" tooltip="Supplier" display="'P4.7KGCT-ND" xr:uid="{C45E63AE-BC7C-43F1-9210-1A4B915A5E96}"/>
+    <hyperlink ref="E26" r:id="rId37" tooltip="Component" display="'ITT C&amp;K" xr:uid="{202A5DE0-912C-433E-BDC7-AED14D015C59}"/>
+    <hyperlink ref="G26" r:id="rId38" tooltip="Supplier" display="'CKN9112CT-ND" xr:uid="{FC1F4C61-EC0E-4B76-9011-964F8AFC1E96}"/>
     <hyperlink ref="E27" tooltip="Component" display="'" xr:uid="{DA8E70EE-926B-41FB-A7C7-AEF745570856}"/>
     <hyperlink ref="G27" tooltip="Supplier" display="'" xr:uid="{BCCD28C6-935A-41EE-9315-A47A0D430EFC}"/>
-    <hyperlink ref="E28" r:id="rId42" tooltip="Component" display="'STMicroelectronics" xr:uid="{F1D2D757-2168-4F84-85CC-6B7857CC38A7}"/>
-    <hyperlink ref="G28" r:id="rId43" tooltip="Supplier" display="'497-1242-1-ND" xr:uid="{DA2D19AF-0D66-4046-B76A-FE065E7DC860}"/>
+    <hyperlink ref="E28" r:id="rId39" tooltip="Component" display="'STMicroelectronics" xr:uid="{F1D2D757-2168-4F84-85CC-6B7857CC38A7}"/>
+    <hyperlink ref="G28" r:id="rId40" tooltip="Supplier" display="'497-1242-1-ND" xr:uid="{DA2D19AF-0D66-4046-B76A-FE065E7DC860}"/>
     <hyperlink ref="E29" tooltip="Component" display="'" xr:uid="{AF3830CA-0A5D-4547-8020-38B04EF3122F}"/>
     <hyperlink ref="G29" tooltip="Supplier" display="'" xr:uid="{450952C7-9C60-4467-A626-54D93BCCC915}"/>
     <hyperlink ref="E35" tooltip="Component" display="'" xr:uid="{14E2E645-1476-4D07-8676-0D939D697598}"/>
     <hyperlink ref="G35" tooltip="Supplier" display="'" xr:uid="{CC989067-0B9B-4ACE-BF92-82AB288102D0}"/>
-    <hyperlink ref="G3" r:id="rId44" tooltip="Supplier" display="'445-6931-1-ND" xr:uid="{F8FD63C4-8737-4DB7-BB4E-D6F08A8FDAD6}"/>
-    <hyperlink ref="G4" r:id="rId45" tooltip="Supplier" display="'445-11850-1-ND" xr:uid="{3AC7EF3B-F256-409C-B907-8D1A803E7EF6}"/>
+    <hyperlink ref="G3" r:id="rId41" tooltip="Supplier" display="'445-6931-1-ND" xr:uid="{F8FD63C4-8737-4DB7-BB4E-D6F08A8FDAD6}"/>
+    <hyperlink ref="G4" r:id="rId42" tooltip="Supplier" display="'445-11850-1-ND" xr:uid="{3AC7EF3B-F256-409C-B907-8D1A803E7EF6}"/>
+    <hyperlink ref="G23" r:id="rId43" tooltip="Supplier" display="'P470LCT-ND" xr:uid="{D559DA0E-CD8F-41DB-B215-71103F8862DB}"/>
+    <hyperlink ref="G22" r:id="rId44" tooltip="Supplier" display="'P56.2KLCT-ND" xr:uid="{AC19B199-05FA-43AA-A606-CAE49839F630}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>